--- a/config_12.22/fish_config.xlsx
+++ b/config_12.22/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1219,11 +1219,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>饺子BOSS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>by_iocn_jzy</t>
+  </si>
+  <si>
+    <t>袜子BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1730,7 +1730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4310,13 +4310,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="F36" s="31" t="s">
         <v>201</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>202</v>
       </c>
       <c r="G36" s="15">
         <v>2.64</v>
